--- a/InputFiles/CCDI/phs003111-diagnosis_20240207_T093343.xlsx
+++ b/InputFiles/CCDI/phs003111-diagnosis_20240207_T093343.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\Desktop\autom\ccdi_data\1.7.2\phs003111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D213B4A3-A039-47ED-8560-1F3073D2578D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40415B81-3E6F-41BC-BE01-AFC77C91796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1936,7 +1939,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2790,16 +2793,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.90625" bestFit="1" customWidth="1"/>
@@ -2929,7 +2933,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -2944,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -2956,7 +2960,7 @@
         <v>597</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
         <v>29</v>
@@ -2973,7 +2977,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -2997,16 +3001,16 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>597</v>
+        <v>408</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="W4" t="s">
         <v>635</v>
@@ -3017,7 +3021,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -3041,16 +3045,16 @@
         <v>27</v>
       </c>
       <c r="K5">
-        <v>408</v>
+        <v>1401</v>
       </c>
       <c r="T5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="W5" t="s">
         <v>635</v>
@@ -3061,7 +3065,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -3076,7 +3080,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
@@ -3085,16 +3089,16 @@
         <v>27</v>
       </c>
       <c r="K6">
-        <v>1913</v>
+        <v>1080</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V6" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="W6" t="s">
         <v>635</v>
@@ -3105,7 +3109,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -3120,25 +3124,25 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>5187</v>
+        <v>822</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="W7" t="s">
         <v>635</v>
@@ -3149,7 +3153,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -3173,16 +3177,16 @@
         <v>27</v>
       </c>
       <c r="K8">
-        <v>1401</v>
+        <v>1929</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="W8" t="s">
         <v>635</v>
@@ -3193,7 +3197,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -3217,16 +3221,16 @@
         <v>27</v>
       </c>
       <c r="K9">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="W9" t="s">
         <v>635</v>
@@ -3237,7 +3241,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -3258,19 +3262,19 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>822</v>
+        <v>2307</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="V10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="W10" t="s">
         <v>635</v>
@@ -3281,7 +3285,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -3302,19 +3306,19 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>1929</v>
+        <v>2307</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="V11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="W11" t="s">
         <v>635</v>
@@ -3325,7 +3329,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -3346,19 +3350,19 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>840</v>
+        <v>1440</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="V12" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="W12" t="s">
         <v>635</v>
@@ -3369,7 +3373,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -3393,16 +3397,16 @@
         <v>61</v>
       </c>
       <c r="K13">
-        <v>2307</v>
+        <v>1440</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="W13" t="s">
         <v>635</v>
@@ -3413,7 +3417,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -3434,19 +3438,19 @@
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>2307</v>
+        <v>720</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="W14" t="s">
         <v>635</v>
@@ -3457,7 +3461,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -3478,19 +3482,19 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="T15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="W15" t="s">
         <v>635</v>
@@ -3501,7 +3505,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -3522,19 +3526,19 @@
         <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>1440</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="W16" t="s">
         <v>635</v>
@@ -3545,7 +3549,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -3569,16 +3573,16 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="V17" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="W17" t="s">
         <v>635</v>
@@ -3589,7 +3593,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -3613,16 +3617,16 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>720</v>
+        <v>867</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="U18" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="V18" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="W18" t="s">
         <v>635</v>
@@ -3633,7 +3637,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -3657,16 +3661,16 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>1440</v>
+        <v>4626</v>
       </c>
       <c r="T19" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="V19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="W19" t="s">
         <v>635</v>
@@ -3677,7 +3681,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -3692,7 +3696,7 @@
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
         <v>26</v>
@@ -3701,16 +3705,16 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>1440</v>
+        <v>1020</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="U20" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="V20" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="W20" t="s">
         <v>635</v>
@@ -3721,7 +3725,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -3745,16 +3749,16 @@
         <v>27</v>
       </c>
       <c r="K21">
-        <v>780</v>
+        <v>2703</v>
       </c>
       <c r="T21" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="U21" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="V21" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="W21" t="s">
         <v>635</v>
@@ -3765,7 +3769,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -3780,25 +3784,25 @@
         <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
         <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K22">
-        <v>1410</v>
+        <v>735</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="U22" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="V22" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="W22" t="s">
         <v>635</v>
@@ -3809,7 +3813,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -3824,25 +3828,25 @@
         <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
         <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K23">
-        <v>1410</v>
+        <v>1686</v>
       </c>
       <c r="T23" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="U23" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="V23" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="W23" t="s">
         <v>635</v>
@@ -3853,7 +3857,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -3877,16 +3881,16 @@
         <v>27</v>
       </c>
       <c r="K24">
-        <v>867</v>
+        <v>1686</v>
       </c>
       <c r="T24" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="U24" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="V24" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="W24" t="s">
         <v>635</v>
@@ -3897,7 +3901,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -3912,25 +3916,25 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
         <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>4626</v>
+        <v>2520</v>
       </c>
       <c r="T25" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="U25" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="V25" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="W25" t="s">
         <v>635</v>
@@ -3941,7 +3945,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -3962,19 +3966,19 @@
         <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>4626</v>
+        <v>840</v>
       </c>
       <c r="T26" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="U26" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="V26" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="W26" t="s">
         <v>635</v>
@@ -3985,7 +3989,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -4009,16 +4013,16 @@
         <v>27</v>
       </c>
       <c r="K27">
-        <v>1020</v>
+        <v>4680</v>
       </c>
       <c r="T27" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="U27" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="V27" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="W27" t="s">
         <v>635</v>
@@ -4029,7 +4033,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -4044,7 +4048,7 @@
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
@@ -4053,16 +4057,16 @@
         <v>27</v>
       </c>
       <c r="K28">
-        <v>1020</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="U28" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="V28" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="W28" t="s">
         <v>635</v>
@@ -4073,7 +4077,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -4094,19 +4098,19 @@
         <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2703</v>
+        <v>1133</v>
       </c>
       <c r="T29" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="U29" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="V29" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="W29" t="s">
         <v>635</v>
@@ -4117,7 +4121,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -4132,7 +4136,7 @@
         <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s">
         <v>26</v>
@@ -4141,16 +4145,16 @@
         <v>27</v>
       </c>
       <c r="K30">
-        <v>2703</v>
+        <v>1290</v>
       </c>
       <c r="T30" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="U30" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="V30" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="W30" t="s">
         <v>635</v>
@@ -4161,7 +4165,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -4182,19 +4186,19 @@
         <v>26</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>735</v>
+        <v>1080</v>
       </c>
       <c r="T31" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="U31" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="V31" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="W31" t="s">
         <v>635</v>
@@ -4205,7 +4209,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -4220,25 +4224,25 @@
         <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="K32">
-        <v>735</v>
+        <v>1590</v>
       </c>
       <c r="T32" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="U32" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="V32" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="W32" t="s">
         <v>635</v>
@@ -4249,7 +4253,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -4264,25 +4268,25 @@
         <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I33" t="s">
         <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>735</v>
+        <v>690</v>
       </c>
       <c r="T33" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="U33" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="V33" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="W33" t="s">
         <v>635</v>
@@ -4293,7 +4297,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -4317,16 +4321,16 @@
         <v>27</v>
       </c>
       <c r="K34">
-        <v>1686</v>
+        <v>238</v>
       </c>
       <c r="T34" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="U34" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="V34" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="W34" t="s">
         <v>635</v>
@@ -4337,7 +4341,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -4361,16 +4365,16 @@
         <v>27</v>
       </c>
       <c r="K35">
-        <v>1686</v>
+        <v>1895</v>
       </c>
       <c r="T35" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="U35" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="V35" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="W35" t="s">
         <v>635</v>
@@ -4381,7 +4385,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -4396,25 +4400,25 @@
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>1686</v>
+        <v>2190</v>
       </c>
       <c r="T36" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="U36" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="V36" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="W36" t="s">
         <v>635</v>
@@ -4425,7 +4429,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -4440,7 +4444,7 @@
         <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
         <v>26</v>
@@ -4449,16 +4453,16 @@
         <v>27</v>
       </c>
       <c r="K37">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="T37" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="U37" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="V37" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="W37" t="s">
         <v>635</v>
@@ -4469,7 +4473,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -4484,7 +4488,7 @@
         <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
         <v>26</v>
@@ -4493,16 +4497,16 @@
         <v>27</v>
       </c>
       <c r="K38">
-        <v>2880</v>
+        <v>1298</v>
       </c>
       <c r="T38" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="V38" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="W38" t="s">
         <v>635</v>
@@ -4513,7 +4517,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
@@ -4537,16 +4541,16 @@
         <v>42</v>
       </c>
       <c r="K39">
-        <v>2520</v>
+        <v>1500</v>
       </c>
       <c r="T39" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="U39" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="V39" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="W39" t="s">
         <v>635</v>
@@ -4557,7 +4561,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -4578,19 +4582,19 @@
         <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K40">
-        <v>840</v>
+        <v>267</v>
       </c>
       <c r="T40" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="U40" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="V40" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="W40" t="s">
         <v>635</v>
@@ -4601,7 +4605,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -4622,19 +4626,19 @@
         <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K41">
-        <v>4680</v>
+        <v>192</v>
       </c>
       <c r="T41" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="U41" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="V41" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="W41" t="s">
         <v>635</v>
@@ -4645,7 +4649,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -4669,16 +4673,16 @@
         <v>27</v>
       </c>
       <c r="K42">
-        <v>36</v>
+        <v>4260</v>
       </c>
       <c r="T42" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="U42" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="V42" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="W42" t="s">
         <v>635</v>
@@ -4689,7 +4693,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
@@ -4710,19 +4714,19 @@
         <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K43">
-        <v>1133</v>
+        <v>570</v>
       </c>
       <c r="T43" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="U43" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="V43" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="W43" t="s">
         <v>635</v>
@@ -4733,7 +4737,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
@@ -4757,16 +4761,16 @@
         <v>27</v>
       </c>
       <c r="K44">
-        <v>1290</v>
+        <v>1431</v>
       </c>
       <c r="T44" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="U44" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="V44" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="W44" t="s">
         <v>635</v>
@@ -4777,7 +4781,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
@@ -4798,19 +4802,19 @@
         <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K45">
-        <v>1080</v>
+        <v>72</v>
       </c>
       <c r="T45" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="U45" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="V45" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="W45" t="s">
         <v>635</v>
@@ -4821,7 +4825,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
@@ -4842,19 +4846,19 @@
         <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="K46">
-        <v>1590</v>
+        <v>690</v>
       </c>
       <c r="T46" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="U46" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="V46" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="W46" t="s">
         <v>635</v>
@@ -4865,7 +4869,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -4886,19 +4890,19 @@
         <v>26</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K47">
-        <v>690</v>
+        <v>2340</v>
       </c>
       <c r="T47" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="U47" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="V47" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="W47" t="s">
         <v>635</v>
@@ -4909,7 +4913,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
@@ -4930,19 +4934,19 @@
         <v>26</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>238</v>
+        <v>870</v>
       </c>
       <c r="T48" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="U48" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="V48" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="W48" t="s">
         <v>635</v>
@@ -4953,7 +4957,7 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
         <v>23</v>
@@ -4974,19 +4978,19 @@
         <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>1895</v>
+        <v>10637</v>
       </c>
       <c r="T49" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="U49" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="V49" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="W49" t="s">
         <v>635</v>
@@ -4997,7 +5001,7 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
         <v>23</v>
@@ -5018,19 +5022,19 @@
         <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="K50">
-        <v>2190</v>
+        <v>9690</v>
       </c>
       <c r="T50" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="U50" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="V50" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="W50" t="s">
         <v>635</v>
@@ -5041,7 +5045,7 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
@@ -5062,19 +5066,19 @@
         <v>26</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1200</v>
+        <v>1371</v>
       </c>
       <c r="T51" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="U51" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="V51" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="W51" t="s">
         <v>635</v>
@@ -5085,7 +5089,7 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -5106,19 +5110,19 @@
         <v>26</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>1298</v>
+        <v>2010</v>
       </c>
       <c r="T52" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="U52" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="V52" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="W52" t="s">
         <v>635</v>
@@ -5129,7 +5133,7 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
@@ -5150,19 +5154,19 @@
         <v>26</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="K53">
-        <v>1500</v>
+        <v>1686</v>
       </c>
       <c r="T53" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="U53" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="V53" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="W53" t="s">
         <v>635</v>
@@ -5173,7 +5177,7 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -5194,19 +5198,19 @@
         <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K54">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="T54" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="U54" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="V54" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="W54" t="s">
         <v>635</v>
@@ -5217,7 +5221,7 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -5241,16 +5245,16 @@
         <v>26</v>
       </c>
       <c r="K55">
-        <v>192</v>
+        <v>1482</v>
       </c>
       <c r="T55" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="U55" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="V55" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="W55" t="s">
         <v>635</v>
@@ -5261,7 +5265,7 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -5282,19 +5286,19 @@
         <v>26</v>
       </c>
       <c r="J56" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>4260</v>
+        <v>1500</v>
       </c>
       <c r="T56" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="U56" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="V56" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="W56" t="s">
         <v>635</v>
@@ -5305,7 +5309,7 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -5329,16 +5333,16 @@
         <v>27</v>
       </c>
       <c r="K57">
-        <v>570</v>
+        <v>1156</v>
       </c>
       <c r="T57" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="U57" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="V57" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="W57" t="s">
         <v>635</v>
@@ -5349,7 +5353,7 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
         <v>23</v>
@@ -5370,19 +5374,19 @@
         <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>1431</v>
+        <v>2213</v>
       </c>
       <c r="T58" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="U58" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="V58" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="W58" t="s">
         <v>635</v>
@@ -5393,7 +5397,7 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
         <v>23</v>
@@ -5414,19 +5418,19 @@
         <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K59">
-        <v>72</v>
+        <v>1050</v>
       </c>
       <c r="T59" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="U59" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="V59" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="W59" t="s">
         <v>635</v>
@@ -5437,7 +5441,7 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
         <v>23</v>
@@ -5461,16 +5465,16 @@
         <v>27</v>
       </c>
       <c r="K60">
-        <v>690</v>
+        <v>2160</v>
       </c>
       <c r="T60" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="U60" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="V60" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="W60" t="s">
         <v>635</v>
@@ -5481,7 +5485,7 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
@@ -5505,16 +5509,16 @@
         <v>27</v>
       </c>
       <c r="K61">
-        <v>2340</v>
+        <v>2160</v>
       </c>
       <c r="T61" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="U61" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="V61" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="W61" t="s">
         <v>635</v>
@@ -5525,7 +5529,7 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -5549,16 +5553,16 @@
         <v>42</v>
       </c>
       <c r="K62">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="T62" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="U62" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="V62" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="W62" t="s">
         <v>635</v>
@@ -5569,7 +5573,7 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -5593,16 +5597,16 @@
         <v>42</v>
       </c>
       <c r="K63">
-        <v>10637</v>
+        <v>900</v>
       </c>
       <c r="T63" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="U63" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="V63" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="W63" t="s">
         <v>635</v>
@@ -5613,7 +5617,7 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s">
         <v>23</v>
@@ -5634,19 +5638,19 @@
         <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="K64">
-        <v>9690</v>
+        <v>1200</v>
       </c>
       <c r="T64" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="U64" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="V64" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="W64" t="s">
         <v>635</v>
@@ -5657,7 +5661,7 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
@@ -5678,19 +5682,19 @@
         <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="K65">
-        <v>1371</v>
+        <v>1200</v>
       </c>
       <c r="T65" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="U65" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="V65" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W65" t="s">
         <v>635</v>
@@ -5701,7 +5705,7 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
@@ -5722,19 +5726,19 @@
         <v>26</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K66">
-        <v>2010</v>
+        <v>558</v>
       </c>
       <c r="T66" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="U66" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="V66" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="W66" t="s">
         <v>635</v>
@@ -5745,7 +5749,7 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -5769,16 +5773,16 @@
         <v>213</v>
       </c>
       <c r="K67">
-        <v>1686</v>
+        <v>5040</v>
       </c>
       <c r="T67" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="U67" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="V67" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="W67" t="s">
         <v>635</v>
@@ -5789,7 +5793,7 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
@@ -5810,19 +5814,19 @@
         <v>26</v>
       </c>
       <c r="J68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K68">
-        <v>324</v>
+        <v>693</v>
       </c>
       <c r="T68" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="U68" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="V68" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="W68" t="s">
         <v>635</v>
@@ -5833,7 +5837,7 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="C69" t="s">
         <v>23</v>
@@ -5854,19 +5858,19 @@
         <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K69">
-        <v>1482</v>
+        <v>693</v>
       </c>
       <c r="T69" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="U69" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="V69" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="W69" t="s">
         <v>635</v>
@@ -5877,7 +5881,7 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
@@ -5898,19 +5902,19 @@
         <v>26</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K70">
-        <v>1500</v>
+        <v>1410</v>
       </c>
       <c r="T70" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="U70" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="V70" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="W70" t="s">
         <v>635</v>
@@ -5921,7 +5925,7 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
@@ -5945,16 +5949,16 @@
         <v>27</v>
       </c>
       <c r="K71">
-        <v>1156</v>
+        <v>1410</v>
       </c>
       <c r="T71" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="U71" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="V71" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="W71" t="s">
         <v>635</v>
@@ -5965,7 +5969,7 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="C72" t="s">
         <v>23</v>
@@ -5986,19 +5990,19 @@
         <v>26</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K72">
-        <v>2213</v>
+        <v>714</v>
       </c>
       <c r="T72" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="U72" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="V72" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="W72" t="s">
         <v>635</v>
@@ -6009,7 +6013,7 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
         <v>23</v>
@@ -6033,16 +6037,16 @@
         <v>27</v>
       </c>
       <c r="K73">
-        <v>1050</v>
+        <v>714</v>
       </c>
       <c r="T73" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="U73" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="V73" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="W73" t="s">
         <v>635</v>
@@ -6053,7 +6057,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="C74" t="s">
         <v>23</v>
@@ -6077,16 +6081,16 @@
         <v>27</v>
       </c>
       <c r="K74">
-        <v>2160</v>
+        <v>924</v>
       </c>
       <c r="T74" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="U74" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="V74" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="W74" t="s">
         <v>635</v>
@@ -6097,7 +6101,7 @@
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
         <v>23</v>
@@ -6121,16 +6125,16 @@
         <v>27</v>
       </c>
       <c r="K75">
-        <v>2160</v>
+        <v>924</v>
       </c>
       <c r="T75" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="U75" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="V75" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="W75" t="s">
         <v>635</v>
@@ -6141,7 +6145,7 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s">
         <v>23</v>
@@ -6162,19 +6166,19 @@
         <v>26</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="K76">
-        <v>900</v>
+        <v>1230</v>
       </c>
       <c r="T76" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="U76" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="V76" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="W76" t="s">
         <v>635</v>
@@ -6185,7 +6189,7 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
@@ -6206,19 +6210,19 @@
         <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K77">
-        <v>900</v>
+        <v>1251</v>
       </c>
       <c r="T77" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="U77" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="V77" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="W77" t="s">
         <v>635</v>
@@ -6229,7 +6233,7 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
@@ -6253,16 +6257,16 @@
         <v>61</v>
       </c>
       <c r="K78">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="T78" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="U78" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="V78" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="W78" t="s">
         <v>635</v>
@@ -6273,7 +6277,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s">
         <v>23</v>
@@ -6294,19 +6298,19 @@
         <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K79">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="T79" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="U79" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="V79" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="W79" t="s">
         <v>635</v>
@@ -6317,7 +6321,7 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="C80" t="s">
         <v>23</v>
@@ -6341,16 +6345,16 @@
         <v>27</v>
       </c>
       <c r="K80">
-        <v>558</v>
+        <v>9153</v>
       </c>
       <c r="T80" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="U80" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="V80" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="W80" t="s">
         <v>635</v>
@@ -6361,7 +6365,7 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="C81" t="s">
         <v>23</v>
@@ -6382,19 +6386,19 @@
         <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="K81">
-        <v>5040</v>
+        <v>4836</v>
       </c>
       <c r="T81" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="U81" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="V81" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="W81" t="s">
         <v>635</v>
@@ -6405,7 +6409,7 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -6426,19 +6430,19 @@
         <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>693</v>
+        <v>7479</v>
       </c>
       <c r="T82" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="U82" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="V82" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="W82" t="s">
         <v>635</v>
@@ -6449,7 +6453,7 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
@@ -6473,16 +6477,16 @@
         <v>27</v>
       </c>
       <c r="K83">
-        <v>693</v>
+        <v>552</v>
       </c>
       <c r="T83" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="U83" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="V83" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="W83" t="s">
         <v>635</v>
@@ -6493,7 +6497,7 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -6514,19 +6518,19 @@
         <v>26</v>
       </c>
       <c r="J84" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>1410</v>
+        <v>3363</v>
       </c>
       <c r="T84" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="U84" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="V84" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="W84" t="s">
         <v>635</v>
@@ -6537,7 +6541,7 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
@@ -6561,16 +6565,16 @@
         <v>27</v>
       </c>
       <c r="K85">
-        <v>1410</v>
+        <v>612</v>
       </c>
       <c r="T85" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="U85" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="V85" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="W85" t="s">
         <v>635</v>
@@ -6581,7 +6585,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -6605,16 +6609,16 @@
         <v>27</v>
       </c>
       <c r="K86">
-        <v>714</v>
+        <v>612</v>
       </c>
       <c r="T86" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="U86" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="V86" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="W86" t="s">
         <v>635</v>
@@ -6625,7 +6629,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -6649,16 +6653,16 @@
         <v>27</v>
       </c>
       <c r="K87">
-        <v>714</v>
+        <v>1035</v>
       </c>
       <c r="T87" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="U87" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="V87" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="W87" t="s">
         <v>635</v>
@@ -6669,7 +6673,7 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -6690,19 +6694,19 @@
         <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K88">
-        <v>924</v>
+        <v>510</v>
       </c>
       <c r="T88" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="U88" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="V88" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="W88" t="s">
         <v>635</v>
@@ -6713,7 +6717,7 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -6737,16 +6741,16 @@
         <v>27</v>
       </c>
       <c r="K89">
-        <v>924</v>
+        <v>2160</v>
       </c>
       <c r="T89" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="U89" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="V89" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="W89" t="s">
         <v>635</v>
@@ -6757,7 +6761,7 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="C90" t="s">
         <v>23</v>
@@ -6781,16 +6785,16 @@
         <v>149</v>
       </c>
       <c r="K90">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="T90" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="U90" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="V90" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="W90" t="s">
         <v>635</v>
@@ -6801,7 +6805,7 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -6825,16 +6829,16 @@
         <v>27</v>
       </c>
       <c r="K91">
-        <v>1251</v>
+        <v>3240</v>
       </c>
       <c r="T91" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="U91" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="V91" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="W91" t="s">
         <v>635</v>
@@ -6845,7 +6849,7 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -6860,25 +6864,25 @@
         <v>26</v>
       </c>
       <c r="H92" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
         <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K92">
-        <v>1251</v>
+        <v>2160</v>
       </c>
       <c r="T92" t="s">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="U92" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="V92" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="W92" t="s">
         <v>635</v>
@@ -6889,7 +6893,7 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>387</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
@@ -6904,25 +6908,25 @@
         <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I93" t="s">
         <v>26</v>
       </c>
       <c r="J93" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K93">
-        <v>1251</v>
+        <v>495</v>
       </c>
       <c r="T93" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="U93" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
       <c r="V93" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="W93" t="s">
         <v>635</v>
@@ -6933,7 +6937,7 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
@@ -6954,19 +6958,19 @@
         <v>26</v>
       </c>
       <c r="J94" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K94">
-        <v>2160</v>
+        <v>1644</v>
       </c>
       <c r="T94" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="U94" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
       <c r="V94" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="W94" t="s">
         <v>635</v>
@@ -6977,7 +6981,7 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -6992,7 +6996,7 @@
         <v>26</v>
       </c>
       <c r="H95" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I95" t="s">
         <v>26</v>
@@ -7001,16 +7005,16 @@
         <v>27</v>
       </c>
       <c r="K95">
-        <v>2160</v>
+        <v>741</v>
       </c>
       <c r="T95" t="s">
-        <v>289</v>
+        <v>394</v>
       </c>
       <c r="U95" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="V95" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="W95" t="s">
         <v>635</v>
@@ -7021,7 +7025,7 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -7036,7 +7040,7 @@
         <v>26</v>
       </c>
       <c r="H96" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I96" t="s">
         <v>26</v>
@@ -7045,16 +7049,16 @@
         <v>27</v>
       </c>
       <c r="K96">
-        <v>2160</v>
+        <v>132</v>
       </c>
       <c r="T96" t="s">
-        <v>292</v>
+        <v>397</v>
       </c>
       <c r="U96" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="V96" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="W96" t="s">
         <v>635</v>
@@ -7065,7 +7069,7 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
@@ -7089,16 +7093,16 @@
         <v>27</v>
       </c>
       <c r="K97">
-        <v>2160</v>
+        <v>501</v>
       </c>
       <c r="T97" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="U97" t="s">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="V97" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="W97" t="s">
         <v>635</v>
@@ -7109,7 +7113,7 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>295</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
@@ -7124,7 +7128,7 @@
         <v>26</v>
       </c>
       <c r="H98" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I98" t="s">
         <v>26</v>
@@ -7133,16 +7137,16 @@
         <v>27</v>
       </c>
       <c r="K98">
-        <v>9153</v>
+        <v>912</v>
       </c>
       <c r="T98" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="U98" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="V98" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="W98" t="s">
         <v>635</v>
@@ -7153,7 +7157,7 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
@@ -7177,16 +7181,16 @@
         <v>27</v>
       </c>
       <c r="K99">
-        <v>9153</v>
+        <v>1314</v>
       </c>
       <c r="T99" t="s">
-        <v>299</v>
+        <v>421</v>
       </c>
       <c r="U99" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="V99" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="W99" t="s">
         <v>635</v>
@@ -7197,7 +7201,7 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
@@ -7221,16 +7225,16 @@
         <v>27</v>
       </c>
       <c r="K100">
-        <v>4836</v>
+        <v>954</v>
       </c>
       <c r="T100" t="s">
-        <v>301</v>
+        <v>424</v>
       </c>
       <c r="U100" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="V100" t="s">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="W100" t="s">
         <v>635</v>
@@ -7241,7 +7245,7 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
@@ -7265,16 +7269,16 @@
         <v>42</v>
       </c>
       <c r="K101">
-        <v>7479</v>
+        <v>864</v>
       </c>
       <c r="T101" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
       <c r="U101" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="V101" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="W101" t="s">
         <v>635</v>
@@ -7285,7 +7289,7 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>429</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
@@ -7300,7 +7304,7 @@
         <v>26</v>
       </c>
       <c r="H102" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I102" t="s">
         <v>26</v>
@@ -7309,16 +7313,16 @@
         <v>42</v>
       </c>
       <c r="K102">
-        <v>7479</v>
+        <v>408</v>
       </c>
       <c r="T102" t="s">
-        <v>307</v>
+        <v>430</v>
       </c>
       <c r="U102" t="s">
-        <v>305</v>
+        <v>431</v>
       </c>
       <c r="V102" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="W102" t="s">
         <v>635</v>
@@ -7329,7 +7333,7 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -7344,25 +7348,25 @@
         <v>26</v>
       </c>
       <c r="H103" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I103" t="s">
         <v>26</v>
       </c>
       <c r="J103" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="K103">
-        <v>6240</v>
+        <v>543</v>
       </c>
       <c r="T103" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
       <c r="U103" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="V103" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="W103" t="s">
         <v>635</v>
@@ -7373,7 +7377,7 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -7394,19 +7398,19 @@
         <v>26</v>
       </c>
       <c r="J104" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>552</v>
+        <v>819</v>
       </c>
       <c r="T104" t="s">
-        <v>312</v>
+        <v>436</v>
       </c>
       <c r="U104" t="s">
-        <v>313</v>
+        <v>437</v>
       </c>
       <c r="V104" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="W104" t="s">
         <v>635</v>
@@ -7417,7 +7421,7 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
@@ -7432,7 +7436,7 @@
         <v>26</v>
       </c>
       <c r="H105" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I105" t="s">
         <v>26</v>
@@ -7441,16 +7445,16 @@
         <v>27</v>
       </c>
       <c r="K105">
-        <v>552</v>
+        <v>135</v>
       </c>
       <c r="T105" t="s">
-        <v>315</v>
+        <v>442</v>
       </c>
       <c r="U105" t="s">
-        <v>313</v>
+        <v>443</v>
       </c>
       <c r="V105" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="W105" t="s">
         <v>635</v>
@@ -7461,7 +7465,7 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
@@ -7476,7 +7480,7 @@
         <v>26</v>
       </c>
       <c r="H106" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I106" t="s">
         <v>26</v>
@@ -7485,16 +7489,16 @@
         <v>27</v>
       </c>
       <c r="K106">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="T106" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="U106" t="s">
-        <v>313</v>
+        <v>449</v>
       </c>
       <c r="V106" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="W106" t="s">
         <v>635</v>
@@ -7505,7 +7509,7 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>318</v>
+        <v>456</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
@@ -7520,25 +7524,25 @@
         <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I107" t="s">
         <v>26</v>
       </c>
       <c r="J107" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>2406</v>
+        <v>2370</v>
       </c>
       <c r="T107" t="s">
-        <v>319</v>
+        <v>457</v>
       </c>
       <c r="U107" t="s">
-        <v>320</v>
+        <v>458</v>
       </c>
       <c r="V107" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="W107" t="s">
         <v>635</v>
@@ -7549,7 +7553,7 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>321</v>
+        <v>459</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
@@ -7564,25 +7568,25 @@
         <v>26</v>
       </c>
       <c r="H108" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I108" t="s">
         <v>26</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K108">
-        <v>3363</v>
+        <v>1800</v>
       </c>
       <c r="T108" t="s">
-        <v>322</v>
+        <v>460</v>
       </c>
       <c r="U108" t="s">
-        <v>323</v>
+        <v>461</v>
       </c>
       <c r="V108" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="W108" t="s">
         <v>635</v>
@@ -7593,7 +7597,7 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>324</v>
+        <v>462</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -7608,25 +7612,25 @@
         <v>26</v>
       </c>
       <c r="H109" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I109" t="s">
         <v>26</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K109">
-        <v>3363</v>
+        <v>1426</v>
       </c>
       <c r="T109" t="s">
-        <v>325</v>
+        <v>463</v>
       </c>
       <c r="U109" t="s">
-        <v>323</v>
+        <v>464</v>
       </c>
       <c r="V109" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="W109" t="s">
         <v>635</v>
@@ -7637,7 +7641,7 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>465</v>
       </c>
       <c r="C110" t="s">
         <v>23</v>
@@ -7658,19 +7662,19 @@
         <v>26</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K110">
-        <v>3363</v>
+        <v>756</v>
       </c>
       <c r="T110" t="s">
-        <v>327</v>
+        <v>466</v>
       </c>
       <c r="U110" t="s">
-        <v>323</v>
+        <v>467</v>
       </c>
       <c r="V110" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="W110" t="s">
         <v>635</v>
@@ -7681,7 +7685,7 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>468</v>
       </c>
       <c r="C111" t="s">
         <v>23</v>
@@ -7705,16 +7709,16 @@
         <v>27</v>
       </c>
       <c r="K111">
-        <v>612</v>
+        <v>999</v>
       </c>
       <c r="T111" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="U111" t="s">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="V111" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="W111" t="s">
         <v>635</v>
@@ -7725,7 +7729,7 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>471</v>
       </c>
       <c r="C112" t="s">
         <v>23</v>
@@ -7749,16 +7753,16 @@
         <v>27</v>
       </c>
       <c r="K112">
-        <v>612</v>
+        <v>1869</v>
       </c>
       <c r="T112" t="s">
-        <v>332</v>
+        <v>472</v>
       </c>
       <c r="U112" t="s">
-        <v>330</v>
+        <v>473</v>
       </c>
       <c r="V112" t="s">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="W112" t="s">
         <v>635</v>
@@ -7769,7 +7773,7 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>477</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
@@ -7793,16 +7797,16 @@
         <v>27</v>
       </c>
       <c r="K113">
-        <v>1035</v>
+        <v>1389</v>
       </c>
       <c r="T113" t="s">
-        <v>334</v>
+        <v>478</v>
       </c>
       <c r="U113" t="s">
-        <v>335</v>
+        <v>479</v>
       </c>
       <c r="V113" t="s">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="W113" t="s">
         <v>635</v>
@@ -7813,7 +7817,7 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>480</v>
       </c>
       <c r="C114" t="s">
         <v>23</v>
@@ -7828,7 +7832,7 @@
         <v>26</v>
       </c>
       <c r="H114" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I114" t="s">
         <v>26</v>
@@ -7837,16 +7841,16 @@
         <v>27</v>
       </c>
       <c r="K114">
-        <v>1035</v>
+        <v>1914</v>
       </c>
       <c r="T114" t="s">
-        <v>337</v>
+        <v>481</v>
       </c>
       <c r="U114" t="s">
-        <v>335</v>
+        <v>482</v>
       </c>
       <c r="V114" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="W114" t="s">
         <v>635</v>
@@ -7857,7 +7861,7 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>486</v>
       </c>
       <c r="C115" t="s">
         <v>23</v>
@@ -7872,7 +7876,7 @@
         <v>26</v>
       </c>
       <c r="H115" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I115" t="s">
         <v>26</v>
@@ -7881,16 +7885,16 @@
         <v>27</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1566</v>
       </c>
       <c r="T115" t="s">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="U115" t="s">
-        <v>340</v>
+        <v>488</v>
       </c>
       <c r="V115" t="s">
-        <v>584</v>
+        <v>628</v>
       </c>
       <c r="W115" t="s">
         <v>635</v>
@@ -7901,7 +7905,7 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
@@ -7916,25 +7920,25 @@
         <v>26</v>
       </c>
       <c r="H116" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I116" t="s">
         <v>26</v>
       </c>
       <c r="J116" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K116">
-        <v>510</v>
+        <v>1245</v>
       </c>
       <c r="T116" t="s">
-        <v>342</v>
+        <v>490</v>
       </c>
       <c r="U116" t="s">
-        <v>343</v>
+        <v>491</v>
       </c>
       <c r="V116" t="s">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="W116" t="s">
         <v>635</v>
@@ -7945,7 +7949,7 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>344</v>
+        <v>495</v>
       </c>
       <c r="C117" t="s">
         <v>23</v>
@@ -7966,19 +7970,19 @@
         <v>26</v>
       </c>
       <c r="J117" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K117">
-        <v>510</v>
+        <v>1766</v>
       </c>
       <c r="T117" t="s">
-        <v>345</v>
+        <v>496</v>
       </c>
       <c r="U117" t="s">
-        <v>343</v>
+        <v>497</v>
       </c>
       <c r="V117" t="s">
-        <v>585</v>
+        <v>631</v>
       </c>
       <c r="W117" t="s">
         <v>635</v>
@@ -7989,7 +7993,7 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>346</v>
+        <v>501</v>
       </c>
       <c r="C118" t="s">
         <v>23</v>
@@ -8004,25 +8008,25 @@
         <v>26</v>
       </c>
       <c r="H118" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I118" t="s">
         <v>26</v>
       </c>
       <c r="J118" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K118">
-        <v>510</v>
+        <v>969</v>
       </c>
       <c r="T118" t="s">
-        <v>347</v>
+        <v>502</v>
       </c>
       <c r="U118" t="s">
-        <v>343</v>
+        <v>503</v>
       </c>
       <c r="V118" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
       <c r="W118" t="s">
         <v>635</v>
@@ -8033,7 +8037,7 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>348</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
         <v>23</v>
@@ -8048,7 +8052,7 @@
         <v>26</v>
       </c>
       <c r="H119" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I119" t="s">
         <v>26</v>
@@ -8057,16 +8061,16 @@
         <v>27</v>
       </c>
       <c r="K119">
-        <v>2160</v>
+        <v>597</v>
       </c>
       <c r="T119" t="s">
-        <v>349</v>
+        <v>32</v>
       </c>
       <c r="U119" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="V119" t="s">
-        <v>586</v>
+        <v>505</v>
       </c>
       <c r="W119" t="s">
         <v>635</v>
@@ -8077,7 +8081,7 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
         <v>23</v>
@@ -8092,7 +8096,7 @@
         <v>26</v>
       </c>
       <c r="H120" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I120" t="s">
         <v>26</v>
@@ -8101,16 +8105,16 @@
         <v>27</v>
       </c>
       <c r="K120">
-        <v>2160</v>
+        <v>1913</v>
       </c>
       <c r="T120" t="s">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="U120" t="s">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="V120" t="s">
-        <v>586</v>
+        <v>507</v>
       </c>
       <c r="W120" t="s">
         <v>635</v>
@@ -8121,7 +8125,7 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
         <v>23</v>
@@ -8142,19 +8146,19 @@
         <v>26</v>
       </c>
       <c r="J121" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="K121">
-        <v>1260</v>
+        <v>5187</v>
       </c>
       <c r="T121" t="s">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="U121" t="s">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="V121" t="s">
-        <v>587</v>
+        <v>508</v>
       </c>
       <c r="W121" t="s">
         <v>635</v>
@@ -8165,7 +8169,7 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="C122" t="s">
         <v>23</v>
@@ -8180,25 +8184,25 @@
         <v>26</v>
       </c>
       <c r="H122" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I122" t="s">
         <v>26</v>
       </c>
       <c r="J122" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>1260</v>
+        <v>1410</v>
       </c>
       <c r="T122" t="s">
-        <v>357</v>
+        <v>86</v>
       </c>
       <c r="U122" t="s">
-        <v>355</v>
+        <v>87</v>
       </c>
       <c r="V122" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
       <c r="W122" t="s">
         <v>635</v>
@@ -8209,7 +8213,7 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>106</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
@@ -8224,25 +8228,25 @@
         <v>26</v>
       </c>
       <c r="H123" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I123" t="s">
         <v>26</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K123">
-        <v>390</v>
+        <v>2703</v>
       </c>
       <c r="T123" t="s">
-        <v>359</v>
+        <v>107</v>
       </c>
       <c r="U123" t="s">
-        <v>360</v>
+        <v>105</v>
       </c>
       <c r="V123" t="s">
-        <v>588</v>
+        <v>523</v>
       </c>
       <c r="W123" t="s">
         <v>635</v>
@@ -8253,7 +8257,7 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>361</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s">
         <v>23</v>
@@ -8274,19 +8278,19 @@
         <v>26</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K124">
-        <v>390</v>
+        <v>735</v>
       </c>
       <c r="T124" t="s">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="U124" t="s">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="V124" t="s">
-        <v>588</v>
+        <v>524</v>
       </c>
       <c r="W124" t="s">
         <v>635</v>
@@ -8297,7 +8301,7 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>120</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
@@ -8312,7 +8316,7 @@
         <v>26</v>
       </c>
       <c r="H125" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I125" t="s">
         <v>26</v>
@@ -8321,16 +8325,16 @@
         <v>27</v>
       </c>
       <c r="K125">
-        <v>3240</v>
+        <v>1686</v>
       </c>
       <c r="T125" t="s">
-        <v>364</v>
+        <v>121</v>
       </c>
       <c r="U125" t="s">
-        <v>365</v>
+        <v>117</v>
       </c>
       <c r="V125" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
       <c r="W125" t="s">
         <v>635</v>
@@ -8341,7 +8345,7 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>366</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
         <v>23</v>
@@ -8356,7 +8360,7 @@
         <v>26</v>
       </c>
       <c r="H126" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I126" t="s">
         <v>26</v>
@@ -8365,16 +8369,16 @@
         <v>27</v>
       </c>
       <c r="K126">
-        <v>3240</v>
+        <v>2880</v>
       </c>
       <c r="T126" t="s">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="U126" t="s">
-        <v>365</v>
+        <v>124</v>
       </c>
       <c r="V126" t="s">
-        <v>589</v>
+        <v>526</v>
       </c>
       <c r="W126" t="s">
         <v>635</v>
@@ -8385,7 +8389,7 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
@@ -8409,16 +8413,16 @@
         <v>27</v>
       </c>
       <c r="K127">
-        <v>3240</v>
+        <v>1251</v>
       </c>
       <c r="T127" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="U127" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="V127" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="W127" t="s">
         <v>635</v>
@@ -8429,7 +8433,7 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
       <c r="C128" t="s">
         <v>23</v>
@@ -8444,25 +8448,25 @@
         <v>26</v>
       </c>
       <c r="H128" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I128" t="s">
         <v>26</v>
       </c>
       <c r="J128" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K128">
         <v>2160</v>
       </c>
       <c r="T128" t="s">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="U128" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="V128" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="W128" t="s">
         <v>635</v>
@@ -8473,7 +8477,7 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s">
         <v>23</v>
@@ -8488,25 +8492,25 @@
         <v>26</v>
       </c>
       <c r="H129" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I129" t="s">
         <v>26</v>
       </c>
       <c r="J129" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K129">
-        <v>2160</v>
+        <v>552</v>
       </c>
       <c r="T129" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="U129" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="V129" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="W129" t="s">
         <v>635</v>
@@ -8517,7 +8521,7 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s">
         <v>23</v>
@@ -8532,7 +8536,7 @@
         <v>26</v>
       </c>
       <c r="H130" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I130" t="s">
         <v>26</v>
@@ -8541,16 +8545,16 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>5868</v>
+        <v>3363</v>
       </c>
       <c r="T130" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="U130" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="V130" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="W130" t="s">
         <v>635</v>
@@ -8561,7 +8565,7 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
         <v>23</v>
@@ -8585,16 +8589,16 @@
         <v>27</v>
       </c>
       <c r="K131">
-        <v>4092</v>
+        <v>1035</v>
       </c>
       <c r="T131" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="U131" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="V131" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="W131" t="s">
         <v>635</v>
@@ -8605,7 +8609,7 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="C132" t="s">
         <v>23</v>
@@ -8620,7 +8624,7 @@
         <v>26</v>
       </c>
       <c r="H132" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I132" t="s">
         <v>26</v>
@@ -8629,16 +8633,16 @@
         <v>27</v>
       </c>
       <c r="K132">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="T132" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="U132" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="V132" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="W132" t="s">
         <v>635</v>
@@ -8649,7 +8653,7 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="C133" t="s">
         <v>23</v>
@@ -8664,25 +8668,25 @@
         <v>26</v>
       </c>
       <c r="H133" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I133" t="s">
         <v>26</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="K133">
-        <v>1941</v>
+        <v>510</v>
       </c>
       <c r="T133" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="U133" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="V133" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="W133" t="s">
         <v>635</v>
@@ -8693,7 +8697,7 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C134" t="s">
         <v>23</v>
@@ -8708,25 +8712,25 @@
         <v>26</v>
       </c>
       <c r="H134" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I134" t="s">
         <v>26</v>
       </c>
       <c r="J134" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="K134">
-        <v>495</v>
+        <v>1260</v>
       </c>
       <c r="T134" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="U134" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="V134" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="W134" t="s">
         <v>635</v>
@@ -8737,40 +8741,40 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" t="s">
+        <v>42</v>
+      </c>
+      <c r="K135">
         <v>390</v>
       </c>
-      <c r="C135" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" t="s">
-        <v>26</v>
-      </c>
-      <c r="H135" t="s">
-        <v>26</v>
-      </c>
-      <c r="I135" t="s">
-        <v>26</v>
-      </c>
-      <c r="J135" t="s">
-        <v>27</v>
-      </c>
-      <c r="K135">
-        <v>1644</v>
-      </c>
       <c r="T135" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="U135" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="V135" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="W135" t="s">
         <v>635</v>
@@ -8781,7 +8785,7 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C136" t="s">
         <v>23</v>
@@ -8796,7 +8800,7 @@
         <v>26</v>
       </c>
       <c r="H136" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I136" t="s">
         <v>26</v>
@@ -8805,16 +8809,16 @@
         <v>27</v>
       </c>
       <c r="K136">
-        <v>741</v>
+        <v>3240</v>
       </c>
       <c r="T136" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="U136" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="V136" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="W136" t="s">
         <v>635</v>
@@ -8825,7 +8829,7 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C137" t="s">
         <v>23</v>
@@ -8840,7 +8844,7 @@
         <v>26</v>
       </c>
       <c r="H137" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I137" t="s">
         <v>26</v>
@@ -8849,16 +8853,16 @@
         <v>27</v>
       </c>
       <c r="K137">
-        <v>132</v>
+        <v>4092</v>
       </c>
       <c r="T137" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="U137" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="V137" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="W137" t="s">
         <v>635</v>
@@ -8869,7 +8873,7 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C138" t="s">
         <v>23</v>
@@ -8884,25 +8888,25 @@
         <v>26</v>
       </c>
       <c r="H138" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I138" t="s">
         <v>26</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K138">
-        <v>1170</v>
+        <v>78</v>
       </c>
       <c r="T138" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="U138" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="V138" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="W138" t="s">
         <v>635</v>
@@ -8913,7 +8917,7 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="C139" t="s">
         <v>23</v>
@@ -8928,7 +8932,7 @@
         <v>26</v>
       </c>
       <c r="H139" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I139" t="s">
         <v>26</v>
@@ -8937,16 +8941,16 @@
         <v>27</v>
       </c>
       <c r="K139">
-        <v>501</v>
+        <v>2367</v>
       </c>
       <c r="T139" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="U139" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="V139" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="W139" t="s">
         <v>635</v>
@@ -8957,7 +8961,7 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="C140" t="s">
         <v>23</v>
@@ -8981,16 +8985,16 @@
         <v>27</v>
       </c>
       <c r="K140">
-        <v>78</v>
+        <v>1311</v>
       </c>
       <c r="T140" t="s">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="U140" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="V140" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="W140" t="s">
         <v>635</v>
@@ -9001,7 +9005,7 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="C141" t="s">
         <v>23</v>
@@ -9025,16 +9029,16 @@
         <v>27</v>
       </c>
       <c r="K141">
-        <v>1422</v>
+        <v>1440</v>
       </c>
       <c r="T141" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="U141" t="s">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="V141" t="s">
-        <v>602</v>
+        <v>517</v>
       </c>
       <c r="W141" t="s">
         <v>635</v>
@@ -9045,7 +9049,7 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>411</v>
+        <v>88</v>
       </c>
       <c r="C142" t="s">
         <v>23</v>
@@ -9066,19 +9070,19 @@
         <v>26</v>
       </c>
       <c r="J142" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>840</v>
+        <v>1410</v>
       </c>
       <c r="T142" t="s">
-        <v>412</v>
+        <v>89</v>
       </c>
       <c r="U142" t="s">
-        <v>413</v>
+        <v>87</v>
       </c>
       <c r="V142" t="s">
-        <v>603</v>
+        <v>519</v>
       </c>
       <c r="W142" t="s">
         <v>635</v>
@@ -9089,7 +9093,7 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>414</v>
+        <v>93</v>
       </c>
       <c r="C143" t="s">
         <v>23</v>
@@ -9104,7 +9108,7 @@
         <v>26</v>
       </c>
       <c r="H143" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I143" t="s">
         <v>26</v>
@@ -9113,16 +9117,16 @@
         <v>27</v>
       </c>
       <c r="K143">
-        <v>912</v>
+        <v>4626</v>
       </c>
       <c r="T143" t="s">
-        <v>415</v>
+        <v>94</v>
       </c>
       <c r="U143" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="V143" t="s">
-        <v>604</v>
+        <v>521</v>
       </c>
       <c r="W143" t="s">
         <v>635</v>
@@ -9133,7 +9137,7 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>417</v>
+        <v>101</v>
       </c>
       <c r="C144" t="s">
         <v>23</v>
@@ -9157,16 +9161,16 @@
         <v>27</v>
       </c>
       <c r="K144">
+        <v>1020</v>
+      </c>
+      <c r="T144" t="s">
         <v>102</v>
       </c>
-      <c r="T144" t="s">
-        <v>418</v>
-      </c>
       <c r="U144" t="s">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="V144" t="s">
-        <v>605</v>
+        <v>522</v>
       </c>
       <c r="W144" t="s">
         <v>635</v>
@@ -9177,7 +9181,7 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>420</v>
+        <v>111</v>
       </c>
       <c r="C145" t="s">
         <v>23</v>
@@ -9192,7 +9196,7 @@
         <v>26</v>
       </c>
       <c r="H145" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I145" t="s">
         <v>26</v>
@@ -9201,16 +9205,16 @@
         <v>27</v>
       </c>
       <c r="K145">
-        <v>1314</v>
+        <v>735</v>
       </c>
       <c r="T145" t="s">
-        <v>421</v>
+        <v>112</v>
       </c>
       <c r="U145" t="s">
-        <v>422</v>
+        <v>110</v>
       </c>
       <c r="V145" t="s">
-        <v>606</v>
+        <v>524</v>
       </c>
       <c r="W145" t="s">
         <v>635</v>
@@ -9221,7 +9225,7 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>423</v>
+        <v>122</v>
       </c>
       <c r="C146" t="s">
         <v>23</v>
@@ -9236,7 +9240,7 @@
         <v>26</v>
       </c>
       <c r="H146" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I146" t="s">
         <v>26</v>
@@ -9245,16 +9249,16 @@
         <v>27</v>
       </c>
       <c r="K146">
-        <v>954</v>
+        <v>2880</v>
       </c>
       <c r="T146" t="s">
-        <v>424</v>
+        <v>123</v>
       </c>
       <c r="U146" t="s">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="V146" t="s">
-        <v>607</v>
+        <v>526</v>
       </c>
       <c r="W146" t="s">
         <v>635</v>
@@ -9265,7 +9269,7 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>426</v>
+        <v>283</v>
       </c>
       <c r="C147" t="s">
         <v>23</v>
@@ -9280,25 +9284,25 @@
         <v>26</v>
       </c>
       <c r="H147" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I147" t="s">
         <v>26</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K147">
-        <v>864</v>
+        <v>1251</v>
       </c>
       <c r="T147" t="s">
-        <v>427</v>
+        <v>284</v>
       </c>
       <c r="U147" t="s">
-        <v>428</v>
+        <v>280</v>
       </c>
       <c r="V147" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="W147" t="s">
         <v>635</v>
@@ -9309,7 +9313,7 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>429</v>
+        <v>291</v>
       </c>
       <c r="C148" t="s">
         <v>23</v>
@@ -9324,25 +9328,25 @@
         <v>26</v>
       </c>
       <c r="H148" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I148" t="s">
         <v>26</v>
       </c>
       <c r="J148" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K148">
-        <v>408</v>
+        <v>2160</v>
       </c>
       <c r="T148" t="s">
-        <v>430</v>
+        <v>292</v>
       </c>
       <c r="U148" t="s">
-        <v>431</v>
+        <v>290</v>
       </c>
       <c r="V148" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="W148" t="s">
         <v>635</v>
@@ -9353,7 +9357,7 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>432</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
         <v>23</v>
@@ -9368,7 +9372,7 @@
         <v>26</v>
       </c>
       <c r="H149" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I149" t="s">
         <v>26</v>
@@ -9377,16 +9381,16 @@
         <v>27</v>
       </c>
       <c r="K149">
-        <v>543</v>
+        <v>9153</v>
       </c>
       <c r="T149" t="s">
-        <v>433</v>
+        <v>296</v>
       </c>
       <c r="U149" t="s">
-        <v>434</v>
+        <v>297</v>
       </c>
       <c r="V149" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="W149" t="s">
         <v>635</v>
@@ -9397,7 +9401,7 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>435</v>
+        <v>306</v>
       </c>
       <c r="C150" t="s">
         <v>23</v>
@@ -9412,7 +9416,7 @@
         <v>26</v>
       </c>
       <c r="H150" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I150" t="s">
         <v>26</v>
@@ -9421,16 +9425,16 @@
         <v>42</v>
       </c>
       <c r="K150">
-        <v>819</v>
+        <v>7479</v>
       </c>
       <c r="T150" t="s">
-        <v>436</v>
+        <v>307</v>
       </c>
       <c r="U150" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
       <c r="V150" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="W150" t="s">
         <v>635</v>
@@ -9441,7 +9445,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
       <c r="C151" t="s">
         <v>23</v>
@@ -9462,19 +9466,19 @@
         <v>26</v>
       </c>
       <c r="J151" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="K151">
-        <v>3276</v>
+        <v>6240</v>
       </c>
       <c r="T151" t="s">
-        <v>439</v>
+        <v>309</v>
       </c>
       <c r="U151" t="s">
-        <v>440</v>
+        <v>310</v>
       </c>
       <c r="V151" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="W151" t="s">
         <v>635</v>
@@ -9485,7 +9489,7 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>441</v>
+        <v>316</v>
       </c>
       <c r="C152" t="s">
         <v>23</v>
@@ -9500,7 +9504,7 @@
         <v>26</v>
       </c>
       <c r="H152" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I152" t="s">
         <v>26</v>
@@ -9509,16 +9513,16 @@
         <v>27</v>
       </c>
       <c r="K152">
-        <v>135</v>
+        <v>552</v>
       </c>
       <c r="T152" t="s">
-        <v>442</v>
+        <v>317</v>
       </c>
       <c r="U152" t="s">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="V152" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="W152" t="s">
         <v>635</v>
@@ -9529,7 +9533,7 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
         <v>23</v>
@@ -9544,7 +9548,7 @@
         <v>26</v>
       </c>
       <c r="H153" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I153" t="s">
         <v>26</v>
@@ -9553,16 +9557,16 @@
         <v>27</v>
       </c>
       <c r="K153">
-        <v>2367</v>
+        <v>2406</v>
       </c>
       <c r="T153" t="s">
-        <v>445</v>
+        <v>319</v>
       </c>
       <c r="U153" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
       <c r="V153" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="W153" t="s">
         <v>635</v>
@@ -9573,7 +9577,7 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>447</v>
+        <v>321</v>
       </c>
       <c r="C154" t="s">
         <v>23</v>
@@ -9588,25 +9592,25 @@
         <v>26</v>
       </c>
       <c r="H154" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I154" t="s">
         <v>26</v>
       </c>
       <c r="J154" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K154">
-        <v>540</v>
+        <v>3363</v>
       </c>
       <c r="T154" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="U154" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
       <c r="V154" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="W154" t="s">
         <v>635</v>
@@ -9617,7 +9621,7 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>450</v>
+        <v>346</v>
       </c>
       <c r="C155" t="s">
         <v>23</v>
@@ -9638,19 +9642,19 @@
         <v>26</v>
       </c>
       <c r="J155" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K155">
-        <v>1203</v>
+        <v>510</v>
       </c>
       <c r="T155" t="s">
-        <v>451</v>
+        <v>347</v>
       </c>
       <c r="U155" t="s">
-        <v>452</v>
+        <v>343</v>
       </c>
       <c r="V155" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="W155" t="s">
         <v>635</v>
@@ -9661,7 +9665,7 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="C156" t="s">
         <v>23</v>
@@ -9685,16 +9689,16 @@
         <v>27</v>
       </c>
       <c r="K156">
-        <v>2525</v>
+        <v>2160</v>
       </c>
       <c r="T156" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="U156" t="s">
-        <v>455</v>
+        <v>350</v>
       </c>
       <c r="V156" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="W156" t="s">
         <v>635</v>
@@ -9705,7 +9709,7 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>456</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
         <v>23</v>
@@ -9720,7 +9724,7 @@
         <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I157" t="s">
         <v>26</v>
@@ -9729,16 +9733,16 @@
         <v>42</v>
       </c>
       <c r="K157">
-        <v>2370</v>
+        <v>390</v>
       </c>
       <c r="T157" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="U157" t="s">
-        <v>458</v>
+        <v>360</v>
       </c>
       <c r="V157" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="W157" t="s">
         <v>635</v>
@@ -9749,7 +9753,7 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>459</v>
+        <v>363</v>
       </c>
       <c r="C158" t="s">
         <v>23</v>
@@ -9764,7 +9768,7 @@
         <v>26</v>
       </c>
       <c r="H158" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I158" t="s">
         <v>26</v>
@@ -9773,16 +9777,16 @@
         <v>27</v>
       </c>
       <c r="K158">
-        <v>1800</v>
+        <v>3240</v>
       </c>
       <c r="T158" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="U158" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="V158" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="W158" t="s">
         <v>635</v>
@@ -9793,7 +9797,7 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>373</v>
       </c>
       <c r="C159" t="s">
         <v>23</v>
@@ -9808,25 +9812,25 @@
         <v>26</v>
       </c>
       <c r="H159" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I159" t="s">
         <v>26</v>
       </c>
       <c r="J159" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K159">
-        <v>1426</v>
+        <v>2160</v>
       </c>
       <c r="T159" t="s">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="U159" t="s">
-        <v>464</v>
+        <v>372</v>
       </c>
       <c r="V159" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="W159" t="s">
         <v>635</v>
@@ -9837,7 +9841,7 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="C160" t="s">
         <v>23</v>
@@ -9852,25 +9856,25 @@
         <v>26</v>
       </c>
       <c r="H160" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I160" t="s">
         <v>26</v>
       </c>
       <c r="J160" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K160">
-        <v>756</v>
+        <v>5868</v>
       </c>
       <c r="T160" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="U160" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
       <c r="V160" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="W160" t="s">
         <v>635</v>
@@ -9881,7 +9885,7 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="C161" t="s">
         <v>23</v>
@@ -9896,7 +9900,7 @@
         <v>26</v>
       </c>
       <c r="H161" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I161" t="s">
         <v>26</v>
@@ -9905,16 +9909,16 @@
         <v>27</v>
       </c>
       <c r="K161">
-        <v>999</v>
+        <v>51</v>
       </c>
       <c r="T161" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="U161" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="V161" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="W161" t="s">
         <v>635</v>
@@ -9925,7 +9929,7 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="C162" t="s">
         <v>23</v>
@@ -9940,25 +9944,25 @@
         <v>26</v>
       </c>
       <c r="H162" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I162" t="s">
         <v>26</v>
       </c>
       <c r="J162" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K162">
-        <v>1869</v>
+        <v>1941</v>
       </c>
       <c r="T162" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="U162" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="V162" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="W162" t="s">
         <v>635</v>
@@ -9969,7 +9973,7 @@
         <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="C163" t="s">
         <v>23</v>
@@ -9984,25 +9988,25 @@
         <v>26</v>
       </c>
       <c r="H163" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I163" t="s">
         <v>26</v>
       </c>
       <c r="J163" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K163">
-        <v>1311</v>
+        <v>1170</v>
       </c>
       <c r="T163" t="s">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="U163" t="s">
-        <v>476</v>
+        <v>401</v>
       </c>
       <c r="V163" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="W163" t="s">
         <v>635</v>
@@ -10013,7 +10017,7 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
       <c r="C164" t="s">
         <v>23</v>
@@ -10028,7 +10032,7 @@
         <v>26</v>
       </c>
       <c r="H164" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I164" t="s">
         <v>26</v>
@@ -10037,16 +10041,16 @@
         <v>27</v>
       </c>
       <c r="K164">
-        <v>1389</v>
+        <v>1422</v>
       </c>
       <c r="T164" t="s">
-        <v>478</v>
+        <v>409</v>
       </c>
       <c r="U164" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="V164" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="W164" t="s">
         <v>635</v>
@@ -10057,7 +10061,7 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="C165" t="s">
         <v>23</v>
@@ -10072,7 +10076,7 @@
         <v>26</v>
       </c>
       <c r="H165" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I165" t="s">
         <v>26</v>
@@ -10081,16 +10085,16 @@
         <v>27</v>
       </c>
       <c r="K165">
-        <v>1914</v>
+        <v>840</v>
       </c>
       <c r="T165" t="s">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="U165" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="V165" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="W165" t="s">
         <v>635</v>
@@ -10101,7 +10105,7 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="C166" t="s">
         <v>23</v>
@@ -10122,19 +10126,19 @@
         <v>26</v>
       </c>
       <c r="J166" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K166">
-        <v>1845</v>
+        <v>102</v>
       </c>
       <c r="T166" t="s">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="U166" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
       <c r="V166" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="W166" t="s">
         <v>635</v>
@@ -10145,7 +10149,7 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -10160,25 +10164,25 @@
         <v>26</v>
       </c>
       <c r="H167" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I167" t="s">
         <v>26</v>
       </c>
       <c r="J167" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K167">
-        <v>1566</v>
+        <v>3276</v>
       </c>
       <c r="T167" t="s">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="U167" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="V167" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="W167" t="s">
         <v>635</v>
@@ -10189,7 +10193,7 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
@@ -10204,7 +10208,7 @@
         <v>26</v>
       </c>
       <c r="H168" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I168" t="s">
         <v>26</v>
@@ -10213,16 +10217,16 @@
         <v>27</v>
       </c>
       <c r="K168">
-        <v>1245</v>
+        <v>1203</v>
       </c>
       <c r="T168" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="U168" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="V168" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="W168" t="s">
         <v>635</v>
@@ -10233,7 +10237,7 @@
         <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
@@ -10257,16 +10261,16 @@
         <v>27</v>
       </c>
       <c r="K169">
-        <v>501</v>
+        <v>2525</v>
       </c>
       <c r="T169" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="U169" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="V169" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="W169" t="s">
         <v>635</v>
@@ -10277,7 +10281,7 @@
         <v>21</v>
       </c>
       <c r="B170" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C170" t="s">
         <v>23</v>
@@ -10292,25 +10296,25 @@
         <v>26</v>
       </c>
       <c r="H170" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I170" t="s">
         <v>26</v>
       </c>
       <c r="J170" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K170">
-        <v>1766</v>
+        <v>1845</v>
       </c>
       <c r="T170" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="U170" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="V170" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="W170" t="s">
         <v>635</v>
@@ -10321,7 +10325,7 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C171" t="s">
         <v>23</v>
@@ -10342,19 +10346,19 @@
         <v>26</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K171">
-        <v>1689</v>
+        <v>501</v>
       </c>
       <c r="T171" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="U171" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="V171" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="W171" t="s">
         <v>635</v>
@@ -10365,7 +10369,7 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C172" t="s">
         <v>23</v>
@@ -10380,31 +10384,36 @@
         <v>26</v>
       </c>
       <c r="H172" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I172" t="s">
         <v>26</v>
       </c>
       <c r="J172" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K172">
-        <v>969</v>
+        <v>1689</v>
       </c>
       <c r="T172" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="U172" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="V172" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W172" t="s">
         <v>635</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X172">
+      <sortCondition ref="H1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>